--- a/Ilosc eksplantatow ktora podjela rozwoj oraz czas.xlsx
+++ b/Ilosc eksplantatow ktora podjela rozwoj oraz czas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E05EB4-EF06-447E-85B6-42FD3F2E7ABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D388E8BE-6459-4988-8AA3-086A284A6635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,26 +16,6 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Baza danych - sniezyca'!$A$1:$T$100</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Baza danych - szachownica'!$A$1:$Q$65</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Ilosc ekspl z rozwoj '!$A$4:$A$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Ilosc ekspl z rozwoj '!$A$8:$A$12</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Ilosc ekspl z rozwoj '!$A$4:$A$7</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Ilosc ekspl z rozwoj '!$A$8:$A$12</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Ilosc ekspl z rozwoj '!$B$3:$B$7</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Ilosc ekspl z rozwoj '!$E$3:$E$7</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Ilosc ekspl z rozwoj '!$E$8:$E$12</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Ilosc ekspl z rozwoj '!$A$4:$A$7</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Ilosc ekspl z rozwoj '!$A$8:$A$12</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Ilosc ekspl z rozwoj '!$B$3:$B$7</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Ilosc ekspl z rozwoj '!$E$3:$E$7</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Ilosc ekspl z rozwoj '!$E$8:$E$12</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Ilosc ekspl z rozwoj '!$B$3:$B$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Ilosc ekspl z rozwoj '!$E$3:$E$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Ilosc ekspl z rozwoj '!$E$8:$E$12</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Ilosc ekspl z rozwoj '!$A$4:$A$7</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Ilosc ekspl z rozwoj '!$A$8:$A$12</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Ilosc ekspl z rozwoj '!$B$3:$B$7</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Ilosc ekspl z rozwoj '!$E$3:$E$7</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Ilosc ekspl z rozwoj '!$E$8:$E$12</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -53,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="258">
   <si>
     <t>Nazwa gatunkowa</t>
   </si>
@@ -703,9 +683,6 @@
     <t>6 kwietnia</t>
   </si>
   <si>
-    <t>Sniezyca karpacka</t>
-  </si>
-  <si>
     <t>25 maja</t>
   </si>
   <si>
@@ -727,9 +704,6 @@
     <t>11-15 dni</t>
   </si>
   <si>
-    <t>około tygodnia</t>
-  </si>
-  <si>
     <t>około 2 tygodni</t>
   </si>
   <si>
@@ -769,62 +743,138 @@
     <t>około 9 tygodni</t>
   </si>
   <si>
-    <t>Liczba tygodni</t>
-  </si>
-  <si>
-    <t>około 1</t>
-  </si>
-  <si>
-    <t>około 2</t>
-  </si>
-  <si>
-    <t>około 3</t>
-  </si>
-  <si>
-    <t>około 4</t>
-  </si>
-  <si>
-    <t>około 5</t>
-  </si>
-  <si>
-    <t>około 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">około 7 </t>
-  </si>
-  <si>
-    <t>około 8</t>
-  </si>
-  <si>
-    <t>około 9</t>
-  </si>
-  <si>
-    <t>przysorst</t>
-  </si>
-  <si>
     <t>sniezyca karpacka</t>
   </si>
   <si>
-    <t>łuska</t>
-  </si>
-  <si>
-    <t>piętka</t>
-  </si>
-  <si>
     <t>szachownica kostkowata</t>
   </si>
   <si>
-    <t>pietka</t>
-  </si>
-  <si>
-    <t>Suma</t>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leucojum vernum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> var. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>carpathicum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sweet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fritillaria meleagris</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L.</t>
+    </r>
+  </si>
+  <si>
+    <t>Data założenia kultury</t>
+  </si>
+  <si>
+    <t>Data obserwacji</t>
+  </si>
+  <si>
+    <t>śniezyca karpacka</t>
+  </si>
+  <si>
+    <t>około 1 tygodnia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unikalna wartość z </t>
+  </si>
+  <si>
+    <t>Zakresy przyjętych pdzedziałów</t>
+  </si>
+  <si>
+    <t>Nazwy przyjętych przedziałów</t>
+  </si>
+  <si>
+    <t>Przedział obserwacji</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>VII</t>
+  </si>
+  <si>
+    <t>VIII</t>
+  </si>
+  <si>
+    <t>IX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,6 +898,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -857,7 +915,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -932,11 +990,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1017,17 +1130,38 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1044,44 +1178,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1135,7 +1276,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL" b="1" i="0" cap="none" baseline="0"/>
-              <a:t>Udział eskplantatow które podjęły regenerację</a:t>
+              <a:t>Ilość eksplantatów która podjęła rozwój</a:t>
             </a:r>
             <a:endParaRPr lang="pl-PL" b="0" i="0" cap="none" baseline="0"/>
           </a:p>
@@ -1186,7 +1327,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Śnieżyca karpacka</c:v>
+                  <c:v>Leucojum vernum var. carpathicum Sweet</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1320,7 +1461,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Szachownica kostkowata</c:v>
+                  <c:v>Fritillaria meleagris L.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1723,8 +1864,20 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="pl-PL" b="1" i="1" cap="none" baseline="0"/>
+              <a:t>Leucojum vernum </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="pl-PL" b="1" i="0" cap="none" baseline="0"/>
-              <a:t>sniezyca karpacka</a:t>
+              <a:t>var. </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" b="1" i="1" cap="none" baseline="0"/>
+              <a:t>carpathicum</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" b="1" i="0" cap="none" baseline="0"/>
+              <a:t> Sweet</a:t>
             </a:r>
             <a:endParaRPr lang="pl-PL" b="0" i="0" cap="none" baseline="0"/>
           </a:p>
@@ -1773,9 +1926,9 @@
             <c:strRef>
               <c:f>'Ilosc eksplanta a czas'!$N$34:$N$35</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>łuska</c:v>
+                  <c:v>Łuska</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1853,31 +2006,31 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>około 1</c:v>
+                  <c:v>I</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>około 2</c:v>
+                  <c:v>II</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>około 3</c:v>
+                  <c:v>III</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>około 4</c:v>
+                  <c:v>IV</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>około 5</c:v>
+                  <c:v>V</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>około 6</c:v>
+                  <c:v>VI</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>około 7 </c:v>
+                  <c:v>VII</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>około 8</c:v>
+                  <c:v>VIII</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>około 9</c:v>
+                  <c:v>IX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1931,9 +2084,9 @@
             <c:strRef>
               <c:f>'Ilosc eksplanta a czas'!$N$36:$N$37</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>piętka</c:v>
+                  <c:v>Piętka</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2011,31 +2164,31 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>około 1</c:v>
+                  <c:v>I</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>około 2</c:v>
+                  <c:v>II</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>około 3</c:v>
+                  <c:v>III</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>około 4</c:v>
+                  <c:v>IV</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>około 5</c:v>
+                  <c:v>V</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>około 6</c:v>
+                  <c:v>VI</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>około 7 </c:v>
+                  <c:v>VII</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>około 8</c:v>
+                  <c:v>VIII</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>około 9</c:v>
+                  <c:v>IX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2360,8 +2513,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="pl-PL" b="1" i="1" cap="none" baseline="0"/>
+              <a:t>Fritillaria meleagris </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="pl-PL" b="1" i="0" cap="none" baseline="0"/>
-              <a:t>szachownica kostkowata</a:t>
+              <a:t>L.</a:t>
             </a:r>
             <a:endParaRPr lang="pl-PL" b="0" i="0" cap="none" baseline="0"/>
           </a:p>
@@ -2412,7 +2569,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>łuska</c:v>
+                  <c:v>Łuska</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2490,31 +2647,31 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>około 1</c:v>
+                  <c:v>I</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>około 2</c:v>
+                  <c:v>II</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>około 3</c:v>
+                  <c:v>III</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>około 4</c:v>
+                  <c:v>IV</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>około 5</c:v>
+                  <c:v>V</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>około 6</c:v>
+                  <c:v>VI</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>około 7 </c:v>
+                  <c:v>VII</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>około 8</c:v>
+                  <c:v>VIII</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>około 9</c:v>
+                  <c:v>IX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2570,7 +2727,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pietka</c:v>
+                  <c:v>Piętka</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2648,31 +2805,31 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>około 1</c:v>
+                  <c:v>I</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>około 2</c:v>
+                  <c:v>II</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>około 3</c:v>
+                  <c:v>III</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>około 4</c:v>
+                  <c:v>IV</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>około 5</c:v>
+                  <c:v>V</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>około 6</c:v>
+                  <c:v>VI</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>około 7 </c:v>
+                  <c:v>VII</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>około 8</c:v>
+                  <c:v>VIII</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>około 9</c:v>
+                  <c:v>IX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5185,64 +5342,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="30" t="s">
+      <c r="I1" s="36"/>
+      <c r="J1" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="30" t="s">
+      <c r="K1" s="36"/>
+      <c r="L1" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="30" t="s">
+      <c r="M1" s="36"/>
+      <c r="N1" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="30" t="s">
+      <c r="O1" s="36"/>
+      <c r="P1" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="30" t="s">
+      <c r="Q1" s="36"/>
+      <c r="R1" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="S1" s="31"/>
-      <c r="T1" s="28" t="s">
+      <c r="S1" s="36"/>
+      <c r="T1" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="U1" s="28"/>
+      <c r="U1" s="37"/>
     </row>
     <row r="2" spans="1:21" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
       <c r="H2" s="3" t="s">
         <v>105</v>
       </c>
@@ -11677,6 +11834,13 @@
     <filterColumn colId="19" showButton="0"/>
   </autoFilter>
   <mergeCells count="14">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
@@ -11684,13 +11848,6 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11723,56 +11880,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="30" t="s">
+      <c r="I1" s="36"/>
+      <c r="J1" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="30" t="s">
+      <c r="K1" s="36"/>
+      <c r="L1" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="30" t="s">
+      <c r="M1" s="36"/>
+      <c r="N1" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="30" t="s">
+      <c r="O1" s="36"/>
+      <c r="P1" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="Q1" s="31"/>
+      <c r="Q1" s="36"/>
     </row>
     <row r="2" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
       <c r="H2" s="13" t="s">
         <v>105</v>
       </c>
@@ -15050,6 +15207,11 @@
     <filterColumn colId="15" showButton="0"/>
   </autoFilter>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="F1:F2"/>
@@ -15057,11 +15219,6 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15072,7 +15229,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15085,26 +15242,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="15" t="s">
         <v>206</v>
       </c>
@@ -15132,8 +15289,8 @@
       <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>201</v>
+      <c r="A4" s="47" t="s">
+        <v>238</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>202</v>
@@ -15152,7 +15309,7 @@
       <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="22" t="s">
         <v>204</v>
       </c>
@@ -15169,7 +15326,7 @@
       <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
@@ -15187,7 +15344,7 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
@@ -15205,8 +15362,8 @@
       <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>52</v>
+      <c r="A8" s="39" t="s">
+        <v>239</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>203</v>
@@ -15225,7 +15382,7 @@
       <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="4" t="s">
         <v>202</v>
       </c>
@@ -15243,7 +15400,7 @@
       <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="4" t="s">
         <v>204</v>
       </c>
@@ -15261,7 +15418,7 @@
       <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
@@ -15279,7 +15436,7 @@
       <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
@@ -15315,8 +15472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DFBC29-382F-40AB-8DFA-A6A0286E4B26}">
   <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="H61" workbookViewId="0">
+      <selection activeCell="Z50" sqref="Z50:Z51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15340,26 +15497,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="19" t="s">
         <v>206</v>
       </c>
@@ -15370,7 +15527,7 @@
       <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="39" t="s">
         <v>201</v>
       </c>
       <c r="B3" s="22" t="s">
@@ -15390,7 +15547,7 @@
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="22" t="s">
         <v>28</v>
       </c>
@@ -15408,7 +15565,7 @@
       <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="22" t="s">
         <v>29</v>
       </c>
@@ -15426,7 +15583,7 @@
       <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="39" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -15446,7 +15603,7 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="22" t="s">
         <v>202</v>
       </c>
@@ -15464,7 +15621,7 @@
       <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="22" t="s">
         <v>204</v>
       </c>
@@ -15482,7 +15639,7 @@
       <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="22" t="s">
         <v>28</v>
       </c>
@@ -15500,7 +15657,7 @@
       <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="22" t="s">
         <v>29</v>
       </c>
@@ -15517,199 +15674,214 @@
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="25"/>
-      <c r="C19" s="25" t="s">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B17" s="50"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="48"/>
+      <c r="C18" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="28" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="C20" s="38">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="30">
         <v>8</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="30">
         <v>15</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="30">
         <v>29</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="30">
         <v>39</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="30">
         <v>43</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="30">
         <v>50</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="30">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="38" t="s">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+      <c r="B21" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="C21" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="38">
+      <c r="C21" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="30">
         <v>8</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="30">
         <v>22</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="30">
         <v>32</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="30">
         <v>36</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="28">
         <v>43</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="28">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="38" t="s">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="39"/>
+      <c r="B22" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="C22" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="38">
+      <c r="C22" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="30">
         <v>15</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="30">
         <v>25</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="30">
         <v>29</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="28">
         <v>36</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="28">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="38" t="s">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
+      <c r="B23" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="C23" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="38">
+      <c r="C23" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="30">
         <v>11</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="30">
         <v>15</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="28">
         <v>22</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="28">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="38" t="s">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="C24" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24" s="38">
-        <v>5</v>
-      </c>
-      <c r="H24" s="25">
+      <c r="C24" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="30">
+        <v>5</v>
+      </c>
+      <c r="H24" s="28">
         <v>12</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="28">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="44" t="s">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="C25" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="G25" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="H25" s="45">
+      <c r="C25" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="32">
         <v>8</v>
       </c>
-      <c r="I25" s="45">
+      <c r="I25" s="32">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -15719,158 +15891,165 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="25" t="s">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25" t="s">
+      <c r="B27" s="48"/>
+      <c r="C27" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="G28" s="25" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B29" s="25" t="s">
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="B29" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="C29" s="38">
-        <v>5</v>
-      </c>
-      <c r="D29" s="25">
+      <c r="C29" s="30">
+        <v>5</v>
+      </c>
+      <c r="D29" s="28">
         <v>12</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="28">
         <v>26</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="28">
         <v>40</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G29" s="28">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B30" s="25" t="s">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="C30" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" s="25">
+      <c r="C30" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="28">
         <v>15</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="28">
         <v>29</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="28">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B31" s="25" t="s">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+      <c r="B31" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="C31" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="F31" s="25">
+      <c r="C31" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" s="28">
         <v>15</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G31" s="28">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="43" t="s">
-        <v>254</v>
+      <c r="M32" s="56"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="46" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="59"/>
       <c r="O33" s="25" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="P33" s="25" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="Q33" s="25" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="R33" s="25" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="S33" s="25" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="T33" s="25" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="U33" s="25" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="V33" s="25" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="W33" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="X33" s="43"/>
+        <v>256</v>
+      </c>
+      <c r="X33" s="46"/>
     </row>
     <row r="34" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L34" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="M34" s="41" t="s">
-        <v>249</v>
-      </c>
-      <c r="N34" s="41" t="s">
-        <v>250</v>
+      <c r="L34" s="39"/>
+      <c r="M34" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="N34" s="47" t="s">
+        <v>28</v>
       </c>
       <c r="O34" s="25">
         <v>0</v>
@@ -15899,15 +16078,15 @@
       <c r="W34" s="25">
         <v>0</v>
       </c>
-      <c r="X34" s="32">
+      <c r="X34" s="39">
         <f>SUM(O34:W34)</f>
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L35" s="32"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
       <c r="O35" s="24">
         <f>O34*100/$X$34</f>
         <v>0</v>
@@ -15944,103 +16123,103 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X35" s="32"/>
+      <c r="X35" s="39"/>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="L36" s="32"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="O36" s="46">
+      <c r="L36" s="39"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="O36" s="33">
         <v>33</v>
       </c>
-      <c r="P36" s="46">
+      <c r="P36" s="33">
         <v>22</v>
       </c>
-      <c r="Q36" s="46">
+      <c r="Q36" s="33">
         <v>10</v>
       </c>
-      <c r="R36" s="46">
+      <c r="R36" s="33">
         <v>3</v>
       </c>
-      <c r="S36" s="46">
+      <c r="S36" s="33">
         <v>9</v>
       </c>
-      <c r="T36" s="46">
+      <c r="T36" s="33">
         <v>3</v>
       </c>
-      <c r="U36" s="46">
+      <c r="U36" s="33">
         <v>1</v>
       </c>
-      <c r="V36" s="46">
-        <v>0</v>
-      </c>
-      <c r="W36" s="46">
-        <v>0</v>
-      </c>
-      <c r="X36" s="32">
+      <c r="V36" s="33">
+        <v>0</v>
+      </c>
+      <c r="W36" s="33">
+        <v>0</v>
+      </c>
+      <c r="X36" s="39">
         <f>SUM(O36:W36)</f>
         <v>81</v>
       </c>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="L37" s="32"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="49">
+      <c r="L37" s="39"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="34">
         <f>O36*100/$X$36</f>
         <v>40.74074074074074</v>
       </c>
-      <c r="P37" s="49">
+      <c r="P37" s="34">
         <f t="shared" ref="P37:W37" si="2">P36*100/$X$36</f>
         <v>27.160493827160494</v>
       </c>
-      <c r="Q37" s="49">
+      <c r="Q37" s="34">
         <f t="shared" si="2"/>
         <v>12.345679012345679</v>
       </c>
-      <c r="R37" s="49">
+      <c r="R37" s="34">
         <f t="shared" si="2"/>
         <v>3.7037037037037037</v>
       </c>
-      <c r="S37" s="49">
+      <c r="S37" s="34">
         <f t="shared" si="2"/>
         <v>11.111111111111111</v>
       </c>
-      <c r="T37" s="49">
+      <c r="T37" s="34">
         <f t="shared" si="2"/>
         <v>3.7037037037037037</v>
       </c>
-      <c r="U37" s="49">
+      <c r="U37" s="34">
         <f t="shared" si="2"/>
         <v>1.2345679012345678</v>
       </c>
-      <c r="V37" s="49">
+      <c r="V37" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W37" s="49">
+      <c r="W37" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X37" s="32"/>
+      <c r="X37" s="39"/>
     </row>
     <row r="38" spans="2:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="N38" s="32" t="s">
-        <v>250</v>
+      <c r="L38" s="39"/>
+      <c r="M38" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="N38" s="39" t="s">
+        <v>28</v>
       </c>
       <c r="O38" s="25">
         <v>0</v>
@@ -16069,7 +16248,7 @@
       <c r="W38" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="X38" s="47">
+      <c r="X38" s="44">
         <f>SUM(O38:W38)</f>
         <v>55</v>
       </c>
@@ -16077,19 +16256,16 @@
     <row r="39" spans="2:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="16"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="32"/>
+      <c r="D39" s="54"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="39"/>
       <c r="O39" s="24">
         <f>O38*100/$X$38</f>
         <v>0</v>
       </c>
       <c r="P39" s="24">
-        <f t="shared" ref="P39:W39" si="3">P38*100/$X$38</f>
+        <f t="shared" ref="P39:V39" si="3">P38*100/$X$38</f>
         <v>7.2727272727272725</v>
       </c>
       <c r="Q39" s="24" t="s">
@@ -16116,15 +16292,24 @@
       <c r="W39" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="X39" s="48"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X39" s="45"/>
+    </row>
+    <row r="40" spans="2:24" ht="45" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="32" t="s">
-        <v>253</v>
+      <c r="E40" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="F40" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="G40" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="L40" s="39"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="39" t="s">
+        <v>29</v>
       </c>
       <c r="O40" s="25">
         <v>3</v>
@@ -16153,7 +16338,7 @@
       <c r="W40" s="25">
         <v>0</v>
       </c>
-      <c r="X40" s="47">
+      <c r="X40" s="44">
         <f>SUM(O40:W40)</f>
         <v>16</v>
       </c>
@@ -16161,19 +16346,18 @@
     <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="5">
-        <v>5</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="L41" s="32"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="32"/>
+      <c r="E41" s="28">
+        <v>5</v>
+      </c>
+      <c r="F41" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="G41" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="L41" s="39"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="39"/>
       <c r="O41" s="24">
         <f>O40*100/$X$40</f>
         <v>18.75</v>
@@ -16207,212 +16391,227 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X41" s="48"/>
+      <c r="X41" s="45"/>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="5">
+      <c r="E42" s="28">
         <v>8</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="45"/>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="5">
+      <c r="E43" s="28">
         <v>11</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="G43" s="44" t="s">
         <v>223</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="5">
+      <c r="E44" s="28">
         <v>12</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="5">
+      <c r="E45" s="28">
         <v>15</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="5">
+      <c r="E46" s="28">
         <v>22</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>226</v>
+      <c r="F46" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="G46" s="44" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="5">
+      <c r="E47" s="28">
         <v>25</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="5">
+      <c r="E48" s="28">
         <v>26</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>232</v>
+      <c r="F48" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="G48" s="44" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="5">
+      <c r="E49" s="28">
         <v>29</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="5">
+      <c r="E50" s="28">
         <v>32</v>
       </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>233</v>
+      <c r="F50" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="G50" s="44" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="5">
+      <c r="E51" s="28">
         <v>36</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="5">
+      <c r="E52" s="28">
         <v>39</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>234</v>
+      <c r="F52" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="G52" s="44" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="5">
+      <c r="E53" s="28">
         <v>40</v>
       </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="5">
+      <c r="E54" s="28">
         <v>43</v>
       </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="5">
+      <c r="E55" s="28">
         <v>50</v>
       </c>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5">
+      <c r="F55" s="28">
         <v>50</v>
       </c>
-      <c r="G55" s="5" t="s">
-        <v>235</v>
+      <c r="G55" s="28" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="5">
+      <c r="E56" s="28">
         <v>57</v>
       </c>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5">
+      <c r="F56" s="28">
         <v>57</v>
       </c>
-      <c r="G56" s="5" t="s">
-        <v>236</v>
+      <c r="G56" s="28" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="5">
+      <c r="E57" s="28">
         <v>64</v>
       </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>237</v>
+      <c r="F57" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="G57" s="44" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="5">
+      <c r="E58" s="28">
         <v>65</v>
       </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="40">
+    <mergeCell ref="M32:N33"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="O32:W32"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="M38:M41"/>
+    <mergeCell ref="L34:L41"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
     <mergeCell ref="X38:X39"/>
     <mergeCell ref="X40:X41"/>
     <mergeCell ref="X32:X33"/>
@@ -16421,17 +16620,6 @@
     <mergeCell ref="N36:N37"/>
     <mergeCell ref="X34:X35"/>
     <mergeCell ref="X36:X37"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="O32:W32"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="M38:M41"/>
-    <mergeCell ref="L34:L41"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Ilosc eksplantatow ktora podjela rozwoj oraz czas.xlsx
+++ b/Ilosc eksplantatow ktora podjela rozwoj oraz czas.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D388E8BE-6459-4988-8AA3-086A284A6635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6361E23-42E7-4534-B07C-5269C1F1F2E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baza danych - sniezyca" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="262">
   <si>
     <t>Nazwa gatunkowa</t>
   </si>
@@ -868,6 +868,18 @@
   </si>
   <si>
     <t xml:space="preserve">Suma </t>
+  </si>
+  <si>
+    <t>Łuska - śnieżyca karpacka</t>
+  </si>
+  <si>
+    <t>Łuska - szachownica kostkowata</t>
+  </si>
+  <si>
+    <t>Piętka - szachownica kostkowata</t>
+  </si>
+  <si>
+    <t>Piętka - śnieżyca karpacka</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1061,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1151,6 +1163,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1161,6 +1183,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1188,29 +1213,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1223,6 +1235,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1275,8 +1290,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pl-PL" b="1" i="0" cap="none" baseline="0"/>
-              <a:t>Ilość eksplantatów która podjęła rozwój</a:t>
+              <a:rPr lang="pl-PL" sz="1600" b="1" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Liczba eksplantatów, które podjęły rozwój </a:t>
             </a:r>
             <a:endParaRPr lang="pl-PL" b="0" i="0" cap="none" baseline="0"/>
           </a:p>
@@ -1438,10 +1455,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3333333333333333</c:v>
+                  <c:v>2.8985507246376812</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54</c:v>
+                  <c:v>93.103448275862064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1572,10 +1589,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>64.705882352941174</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>88.888888888888886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3120,6 +3137,901 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1600" b="1" i="0" u="none" strike="noStrike" cap="none" normalizeH="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Rozkład organogenezy pędowej w czasie </a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL" b="0" i="0" cap="none" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ilosc eksplanta a czas'!$I$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Łuska - śnieżyca karpacka</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ilosc eksplanta a czas'!$O$33:$W$33</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>II</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>III</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>VII</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>VIII</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ilosc eksplanta a czas'!$O$35:$W$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-569B-45ED-87EA-58E39EF14D65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ilosc eksplanta a czas'!$I$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Piętka - śnieżyca karpacka</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ilosc eksplanta a czas'!$O$33:$W$33</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>I</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>II</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>III</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>VII</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>VIII</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>IX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ilosc eksplanta a czas'!$O$37:$W$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>40.74074074074074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.160493827160494</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.345679012345679</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7037037037037037</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7037037037037037</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2345679012345678</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-569B-45ED-87EA-58E39EF14D65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ilosc eksplanta a czas'!$I$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Łuska - szachownica kostkowata</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ilosc eksplanta a czas'!$O$39:$W$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2727272727272725</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.81818181818182</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4545454545454541</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-569B-45ED-87EA-58E39EF14D65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ilosc eksplanta a czas'!$I$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Piętka - szachownica kostkowata</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ilosc eksplanta a czas'!$O$41:$W$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-569B-45ED-87EA-58E39EF14D65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="657872680"/>
+        <c:axId val="657873336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="657872680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="657873336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="657873336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="657872680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln cmpd="thinThick">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:softEdge rad="850900"/>
+        </a:effectLst>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3201,6 +4113,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4812,6 +5764,530 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -4969,16 +6445,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5007,16 +6483,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5038,6 +6514,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A02E114-89A8-48D6-AF00-9910A0911668}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5312,8 +6826,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U100"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Q87" sqref="Q87:Q93"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5342,64 +6856,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="35" t="s">
+      <c r="I1" s="40"/>
+      <c r="J1" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="35" t="s">
+      <c r="K1" s="40"/>
+      <c r="L1" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="35" t="s">
+      <c r="M1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="35" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="35" t="s">
+      <c r="Q1" s="40"/>
+      <c r="R1" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="37" t="s">
+      <c r="S1" s="40"/>
+      <c r="T1" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="U1" s="37"/>
+      <c r="U1" s="41"/>
     </row>
     <row r="2" spans="1:21" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="3" t="s">
         <v>105</v>
       </c>
@@ -11880,56 +13394,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="35" t="s">
+      <c r="I1" s="40"/>
+      <c r="J1" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="35" t="s">
+      <c r="K1" s="40"/>
+      <c r="L1" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="35" t="s">
+      <c r="M1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="35" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="Q1" s="36"/>
+      <c r="Q1" s="40"/>
     </row>
     <row r="2" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="13" t="s">
         <v>105</v>
       </c>
@@ -15228,8 +16742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9940FC40-FFFF-4310-9386-6C4158423188}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15242,26 +16756,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="38"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="43"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="15" t="s">
         <v>206</v>
       </c>
@@ -15289,14 +16803,14 @@
       <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="43" t="s">
         <v>238</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="4">
-        <v>150</v>
+      <c r="C4" s="35">
+        <v>63</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -15309,7 +16823,7 @@
       <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="22" t="s">
         <v>204</v>
       </c>
@@ -15326,52 +16840,52 @@
       <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="4">
-        <v>150</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C6" s="35">
+        <v>69</v>
+      </c>
+      <c r="D6" s="35">
         <v>2</v>
       </c>
       <c r="E6" s="24">
-        <f t="shared" ref="E6:E12" si="0">D6*100/C6</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" ref="E6:E11" si="0">D6*100/C6</f>
+        <v>2.8985507246376812</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="4">
-        <v>150</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7" s="35">
+        <v>87</v>
+      </c>
+      <c r="D7" s="35">
         <v>81</v>
       </c>
       <c r="E7" s="24">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>93.103448275862064</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="4">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8" s="35">
+        <v>14</v>
+      </c>
+      <c r="D8" s="35">
         <v>0</v>
       </c>
       <c r="E8" s="24">
@@ -15382,14 +16896,14 @@
       <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="4">
-        <v>50</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C9" s="35">
+        <v>45</v>
+      </c>
+      <c r="D9" s="35">
         <v>0</v>
       </c>
       <c r="E9" s="24">
@@ -15400,14 +16914,14 @@
       <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="44"/>
+      <c r="B10" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="4">
-        <v>50</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C10" s="35">
+        <v>37</v>
+      </c>
+      <c r="D10" s="35">
         <v>0</v>
       </c>
       <c r="E10" s="24">
@@ -15418,37 +16932,37 @@
       <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="4">
-        <v>125</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="C11" s="35">
+        <v>85</v>
+      </c>
+      <c r="D11" s="35">
         <v>55</v>
       </c>
       <c r="E11" s="24">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>64.705882352941174</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="4">
-        <v>50</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="C12" s="35">
+        <v>18</v>
+      </c>
+      <c r="D12" s="35">
         <v>16</v>
       </c>
       <c r="E12" s="24">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f>D12*100/C12</f>
+        <v>88.888888888888886</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -15472,8 +16986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DFBC29-382F-40AB-8DFA-A6A0286E4B26}">
   <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H61" workbookViewId="0">
-      <selection activeCell="Z50" sqref="Z50:Z51"/>
+    <sheetView tabSelected="1" topLeftCell="H49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15497,26 +17011,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="38"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="43"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="19" t="s">
         <v>206</v>
       </c>
@@ -15527,7 +17041,7 @@
       <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="44" t="s">
         <v>201</v>
       </c>
       <c r="B3" s="22" t="s">
@@ -15547,7 +17061,7 @@
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="22" t="s">
         <v>28</v>
       </c>
@@ -15565,7 +17079,7 @@
       <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="22" t="s">
         <v>29</v>
       </c>
@@ -15583,7 +17097,7 @@
       <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="44" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -15603,7 +17117,7 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="22" t="s">
         <v>202</v>
       </c>
@@ -15621,7 +17135,7 @@
       <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="22" t="s">
         <v>204</v>
       </c>
@@ -15639,7 +17153,7 @@
       <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="22" t="s">
         <v>28</v>
       </c>
@@ -15657,7 +17171,7 @@
       <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="22" t="s">
         <v>29</v>
       </c>
@@ -15675,26 +17189,26 @@
       <c r="G10" s="21"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
+      <c r="B17" s="36"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="39" t="s">
+      <c r="B18" s="52"/>
+      <c r="C18" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="28" t="s">
         <v>209</v>
       </c>
@@ -15718,7 +17232,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="44" t="s">
         <v>240</v>
       </c>
       <c r="B20" s="29" t="s">
@@ -15747,7 +17261,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="30" t="s">
         <v>209</v>
       </c>
@@ -15774,7 +17288,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="30" t="s">
         <v>210</v>
       </c>
@@ -15801,7 +17315,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="30" t="s">
         <v>215</v>
       </c>
@@ -15828,7 +17342,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="30" t="s">
         <v>211</v>
       </c>
@@ -15855,7 +17369,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="31" t="s">
         <v>212</v>
       </c>
@@ -15892,21 +17406,21 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48" t="s">
+      <c r="B27" s="52"/>
+      <c r="C27" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="28" t="s">
         <v>212</v>
       </c>
@@ -15924,7 +17438,7 @@
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="44" t="s">
         <v>240</v>
       </c>
       <c r="B29" s="28" t="s">
@@ -15945,9 +17459,12 @@
       <c r="G29" s="28">
         <v>65</v>
       </c>
+      <c r="I29" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="28" t="s">
         <v>213</v>
       </c>
@@ -15966,9 +17483,12 @@
       <c r="G30" s="28">
         <v>57</v>
       </c>
+      <c r="I30" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="28" t="s">
         <v>214</v>
       </c>
@@ -15987,23 +17507,29 @@
       <c r="G31" s="28">
         <v>43</v>
       </c>
+      <c r="I31" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>260</v>
+      </c>
       <c r="L32" s="6"/>
       <c r="M32" s="56"/>
       <c r="N32" s="57"/>
-      <c r="O32" s="48" t="s">
+      <c r="O32" s="52" t="s">
         <v>247</v>
       </c>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="46" t="s">
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="51" t="s">
         <v>257</v>
       </c>
     </row>
@@ -16041,14 +17567,14 @@
       <c r="W33" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="X33" s="46"/>
+      <c r="X33" s="51"/>
     </row>
     <row r="34" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L34" s="39"/>
-      <c r="M34" s="47" t="s">
+      <c r="L34" s="44"/>
+      <c r="M34" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="N34" s="47" t="s">
+      <c r="N34" s="43" t="s">
         <v>28</v>
       </c>
       <c r="O34" s="25">
@@ -16078,15 +17604,15 @@
       <c r="W34" s="25">
         <v>0</v>
       </c>
-      <c r="X34" s="39">
+      <c r="X34" s="44">
         <f>SUM(O34:W34)</f>
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L35" s="39"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
       <c r="O35" s="24">
         <f>O34*100/$X$34</f>
         <v>0</v>
@@ -16123,12 +17649,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X35" s="39"/>
+      <c r="X35" s="44"/>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="L36" s="39"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="39" t="s">
+      <c r="L36" s="44"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="44" t="s">
         <v>29</v>
       </c>
       <c r="O36" s="33">
@@ -16158,15 +17684,15 @@
       <c r="W36" s="33">
         <v>0</v>
       </c>
-      <c r="X36" s="39">
+      <c r="X36" s="44">
         <f>SUM(O36:W36)</f>
         <v>81</v>
       </c>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="L37" s="39"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="39"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="44"/>
       <c r="O37" s="34">
         <f>O36*100/$X$36</f>
         <v>40.74074074074074</v>
@@ -16203,7 +17729,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X37" s="39"/>
+      <c r="X37" s="44"/>
     </row>
     <row r="38" spans="2:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
@@ -16214,11 +17740,11 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="49" t="s">
+      <c r="L38" s="44"/>
+      <c r="M38" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="N38" s="39" t="s">
+      <c r="N38" s="44" t="s">
         <v>28</v>
       </c>
       <c r="O38" s="25">
@@ -16248,7 +17774,7 @@
       <c r="W38" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="X38" s="44">
+      <c r="X38" s="49">
         <f>SUM(O38:W38)</f>
         <v>55</v>
       </c>
@@ -16256,10 +17782,10 @@
     <row r="39" spans="2:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="16"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="54"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="39"/>
+      <c r="D39" s="37"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="44"/>
       <c r="O39" s="24">
         <f>O38*100/$X$38</f>
         <v>0</v>
@@ -16292,23 +17818,23 @@
       <c r="W39" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="X39" s="45"/>
+      <c r="X39" s="50"/>
     </row>
     <row r="40" spans="2:24" ht="45" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="E40" s="55" t="s">
+      <c r="E40" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="F40" s="55" t="s">
+      <c r="F40" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="G40" s="55" t="s">
+      <c r="G40" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="L40" s="39"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="39" t="s">
+      <c r="L40" s="44"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="44" t="s">
         <v>29</v>
       </c>
       <c r="O40" s="25">
@@ -16338,7 +17864,7 @@
       <c r="W40" s="25">
         <v>0</v>
       </c>
-      <c r="X40" s="44">
+      <c r="X40" s="49">
         <f>SUM(O40:W40)</f>
         <v>16</v>
       </c>
@@ -16349,15 +17875,15 @@
       <c r="E41" s="28">
         <v>5</v>
       </c>
-      <c r="F41" s="51" t="s">
+      <c r="F41" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="G41" s="44" t="s">
+      <c r="G41" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="L41" s="39"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="39"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="44"/>
       <c r="O41" s="24">
         <f>O40*100/$X$40</f>
         <v>18.75</v>
@@ -16391,7 +17917,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X41" s="45"/>
+      <c r="X41" s="50"/>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
@@ -16399,8 +17925,8 @@
       <c r="E42" s="28">
         <v>8</v>
       </c>
-      <c r="F42" s="52"/>
-      <c r="G42" s="45"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="50"/>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
@@ -16408,10 +17934,10 @@
       <c r="E43" s="28">
         <v>11</v>
       </c>
-      <c r="F43" s="44" t="s">
+      <c r="F43" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="G43" s="44" t="s">
+      <c r="G43" s="49" t="s">
         <v>223</v>
       </c>
     </row>
@@ -16421,8 +17947,8 @@
       <c r="E44" s="28">
         <v>12</v>
       </c>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
@@ -16430,8 +17956,8 @@
       <c r="E45" s="28">
         <v>15</v>
       </c>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
@@ -16439,10 +17965,10 @@
       <c r="E46" s="28">
         <v>22</v>
       </c>
-      <c r="F46" s="44" t="s">
+      <c r="F46" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="G46" s="44" t="s">
+      <c r="G46" s="49" t="s">
         <v>224</v>
       </c>
     </row>
@@ -16452,8 +17978,8 @@
       <c r="E47" s="28">
         <v>25</v>
       </c>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
@@ -16461,10 +17987,10 @@
       <c r="E48" s="28">
         <v>26</v>
       </c>
-      <c r="F48" s="44" t="s">
+      <c r="F48" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="G48" s="44" t="s">
+      <c r="G48" s="49" t="s">
         <v>230</v>
       </c>
     </row>
@@ -16474,8 +18000,8 @@
       <c r="E49" s="28">
         <v>29</v>
       </c>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
@@ -16483,10 +18009,10 @@
       <c r="E50" s="28">
         <v>32</v>
       </c>
-      <c r="F50" s="44" t="s">
+      <c r="F50" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="G50" s="44" t="s">
+      <c r="G50" s="49" t="s">
         <v>231</v>
       </c>
     </row>
@@ -16496,8 +18022,8 @@
       <c r="E51" s="28">
         <v>36</v>
       </c>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
@@ -16505,10 +18031,10 @@
       <c r="E52" s="28">
         <v>39</v>
       </c>
-      <c r="F52" s="44" t="s">
+      <c r="F52" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="G52" s="44" t="s">
+      <c r="G52" s="49" t="s">
         <v>232</v>
       </c>
     </row>
@@ -16518,8 +18044,8 @@
       <c r="E53" s="28">
         <v>40</v>
       </c>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
@@ -16527,8 +18053,8 @@
       <c r="E54" s="28">
         <v>43</v>
       </c>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
@@ -16562,10 +18088,10 @@
       <c r="E57" s="28">
         <v>64</v>
       </c>
-      <c r="F57" s="44" t="s">
+      <c r="F57" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="G57" s="44" t="s">
+      <c r="G57" s="49" t="s">
         <v>235</v>
       </c>
     </row>
@@ -16575,12 +18101,16 @@
       <c r="E58" s="28">
         <v>65</v>
       </c>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="M32:N33"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
     <mergeCell ref="F52:F54"/>
     <mergeCell ref="F57:F58"/>
     <mergeCell ref="G46:G47"/>
@@ -16588,11 +18118,6 @@
     <mergeCell ref="G50:G51"/>
     <mergeCell ref="G52:G54"/>
     <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -16612,6 +18137,7 @@
     <mergeCell ref="A27:B28"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="G41:G42"/>
+    <mergeCell ref="M32:N33"/>
     <mergeCell ref="X38:X39"/>
     <mergeCell ref="X40:X41"/>
     <mergeCell ref="X32:X33"/>

--- a/Ilosc eksplantatow ktora podjela rozwoj oraz czas.xlsx
+++ b/Ilosc eksplantatow ktora podjela rozwoj oraz czas.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6361E23-42E7-4534-B07C-5269C1F1F2E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D3D16B-DED5-427D-987E-13008E16E366}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baza danych - sniezyca" sheetId="1" r:id="rId1"/>
@@ -1173,17 +1173,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1206,10 +1206,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1236,7 +1236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6823,10 +6823,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U100"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
@@ -6856,64 +6855,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="39" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="40"/>
-      <c r="L1" s="39" t="s">
+      <c r="K1" s="42"/>
+      <c r="L1" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="M1" s="42"/>
+      <c r="N1" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="39" t="s">
+      <c r="O1" s="42"/>
+      <c r="P1" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="39" t="s">
+      <c r="Q1" s="42"/>
+      <c r="R1" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="S1" s="40"/>
-      <c r="T1" s="41" t="s">
+      <c r="S1" s="42"/>
+      <c r="T1" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="U1" s="41"/>
-    </row>
-    <row r="2" spans="1:21" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
+      <c r="U1" s="39"/>
+    </row>
+    <row r="2" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="3" t="s">
         <v>105</v>
       </c>
@@ -6957,7 +6956,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -7022,7 +7021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -7087,7 +7086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -7152,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -7217,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -7282,7 +7281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>43168</v>
       </c>
@@ -7347,7 +7346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
@@ -7412,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7477,7 +7476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -7542,7 +7541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -7607,7 +7606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
@@ -7672,7 +7671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
@@ -7737,7 +7736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
@@ -7802,7 +7801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
@@ -7867,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
@@ -7932,7 +7931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
@@ -7997,7 +7996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
@@ -8062,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -8127,7 +8126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>43175</v>
       </c>
@@ -8192,7 +8191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
@@ -8257,7 +8256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
@@ -8322,7 +8321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
@@ -8387,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>30</v>
       </c>
@@ -8452,7 +8451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
@@ -8517,7 +8516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
@@ -8582,7 +8581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
@@ -8647,7 +8646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
@@ -8712,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
@@ -8777,7 +8776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
@@ -8842,7 +8841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -8907,7 +8906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>30</v>
       </c>
@@ -8972,7 +8971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>30</v>
       </c>
@@ -9037,7 +9036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>30</v>
       </c>
@@ -9102,7 +9101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
@@ -9167,7 +9166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>30</v>
       </c>
@@ -9232,7 +9231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>30</v>
       </c>
@@ -9297,7 +9296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>30</v>
       </c>
@@ -9362,7 +9361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>30</v>
       </c>
@@ -9427,7 +9426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>30</v>
       </c>
@@ -9492,7 +9491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>30</v>
       </c>
@@ -9557,7 +9556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>30</v>
       </c>
@@ -9622,7 +9621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>30</v>
       </c>
@@ -9687,7 +9686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>30</v>
       </c>
@@ -9752,7 +9751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>30</v>
       </c>
@@ -9817,7 +9816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>30</v>
       </c>
@@ -9882,7 +9881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>30</v>
       </c>
@@ -9947,7 +9946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>30</v>
       </c>
@@ -10012,7 +10011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>30</v>
       </c>
@@ -10077,7 +10076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>30</v>
       </c>
@@ -10142,7 +10141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>30</v>
       </c>
@@ -10207,7 +10206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>30</v>
       </c>
@@ -10272,7 +10271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>30</v>
       </c>
@@ -10337,7 +10336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>30</v>
       </c>
@@ -10402,7 +10401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>30</v>
       </c>
@@ -10467,7 +10466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>43182</v>
       </c>
@@ -10532,7 +10531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>49</v>
       </c>
@@ -10597,7 +10596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>49</v>
       </c>
@@ -10662,7 +10661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>49</v>
       </c>
@@ -10727,7 +10726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>49</v>
       </c>
@@ -10792,7 +10791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>49</v>
       </c>
@@ -10857,7 +10856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>49</v>
       </c>
@@ -10922,7 +10921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>49</v>
       </c>
@@ -10987,7 +10986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>49</v>
       </c>
@@ -11052,7 +11051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>49</v>
       </c>
@@ -11117,7 +11116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>49</v>
       </c>
@@ -11182,7 +11181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>49</v>
       </c>
@@ -11247,7 +11246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>49</v>
       </c>
@@ -11312,7 +11311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>49</v>
       </c>
@@ -11377,7 +11376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>49</v>
       </c>
@@ -11442,7 +11441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>49</v>
       </c>
@@ -11507,7 +11506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>49</v>
       </c>
@@ -11572,7 +11571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>49</v>
       </c>
@@ -11637,7 +11636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>50</v>
       </c>
@@ -11702,7 +11701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>43196</v>
       </c>
@@ -11767,7 +11766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>50</v>
       </c>
@@ -11832,7 +11831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>50</v>
       </c>
@@ -11897,7 +11896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>50</v>
       </c>
@@ -11962,7 +11961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>50</v>
       </c>
@@ -12027,7 +12026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>50</v>
       </c>
@@ -12092,7 +12091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>50</v>
       </c>
@@ -12157,7 +12156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>50</v>
       </c>
@@ -12222,7 +12221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>50</v>
       </c>
@@ -12287,7 +12286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>50</v>
       </c>
@@ -12352,7 +12351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>50</v>
       </c>
@@ -12417,7 +12416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>50</v>
       </c>
@@ -12482,7 +12481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>50</v>
       </c>
@@ -12547,7 +12546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>50</v>
       </c>
@@ -12612,7 +12611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>50</v>
       </c>
@@ -12677,7 +12676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>50</v>
       </c>
@@ -12742,7 +12741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
         <v>43196</v>
       </c>
@@ -12807,7 +12806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
         <v>43196</v>
       </c>
@@ -13132,7 +13131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>79</v>
       </c>
@@ -13197,7 +13196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>79</v>
       </c>
@@ -13262,7 +13261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>79</v>
       </c>
@@ -13329,16 +13328,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:T100" xr:uid="{A3EB1D5E-4AF2-4E96-A39F-D43A7CF18BB2}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="16.04.2018"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Piętka"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="7" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
     <filterColumn colId="11" showButton="0"/>
@@ -13348,6 +13337,13 @@
     <filterColumn colId="19" showButton="0"/>
   </autoFilter>
   <mergeCells count="14">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
@@ -13355,13 +13351,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13370,10 +13359,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F0EDAA-5ED1-472A-9196-B84C43891EB5}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O34" sqref="O34:O37"/>
     </sheetView>
   </sheetViews>
@@ -13394,56 +13382,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="39" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="K1" s="40"/>
-      <c r="L1" s="39" t="s">
+      <c r="K1" s="42"/>
+      <c r="L1" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="M1" s="42"/>
+      <c r="N1" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="39" t="s">
+      <c r="O1" s="42"/>
+      <c r="P1" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="Q1" s="40"/>
-    </row>
-    <row r="2" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="Q1" s="42"/>
+    </row>
+    <row r="2" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="13" t="s">
         <v>105</v>
       </c>
@@ -13475,7 +13463,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>43161</v>
       </c>
@@ -13526,7 +13514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>43161</v>
       </c>
@@ -13577,7 +13565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>43161</v>
       </c>
@@ -13628,7 +13616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>43161</v>
       </c>
@@ -13679,7 +13667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>43206</v>
       </c>
@@ -13730,7 +13718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>51</v>
       </c>
@@ -13781,7 +13769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>51</v>
       </c>
@@ -13832,7 +13820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>51</v>
       </c>
@@ -14036,7 +14024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>51</v>
       </c>
@@ -14087,7 +14075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>51</v>
       </c>
@@ -14138,7 +14126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>51</v>
       </c>
@@ -14189,7 +14177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>51</v>
       </c>
@@ -14240,7 +14228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>51</v>
       </c>
@@ -14291,7 +14279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>51</v>
       </c>
@@ -14342,7 +14330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>51</v>
       </c>
@@ -14393,7 +14381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>51</v>
       </c>
@@ -14446,7 +14434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>51</v>
       </c>
@@ -14499,7 +14487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>51</v>
       </c>
@@ -14552,7 +14540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>51</v>
       </c>
@@ -14605,7 +14593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>51</v>
       </c>
@@ -14658,7 +14646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>51</v>
       </c>
@@ -14711,7 +14699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>51</v>
       </c>
@@ -14764,7 +14752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>43217</v>
       </c>
@@ -14815,7 +14803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>80</v>
       </c>
@@ -14866,7 +14854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>80</v>
       </c>
@@ -14917,7 +14905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>80</v>
       </c>
@@ -14968,7 +14956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>80</v>
       </c>
@@ -15019,7 +15007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>80</v>
       </c>
@@ -15070,7 +15058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>80</v>
       </c>
@@ -15121,7 +15109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>43217</v>
       </c>
@@ -15172,7 +15160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>80</v>
       </c>
@@ -15223,7 +15211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>80</v>
       </c>
@@ -15274,7 +15262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>43217</v>
       </c>
@@ -15325,7 +15313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>80</v>
       </c>
@@ -15376,7 +15364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>80</v>
       </c>
@@ -15427,7 +15415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>80</v>
       </c>
@@ -15478,7 +15466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>80</v>
       </c>
@@ -15529,7 +15517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>80</v>
       </c>
@@ -15580,7 +15568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>80</v>
       </c>
@@ -15631,7 +15619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>80</v>
       </c>
@@ -15682,7 +15670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>43231</v>
       </c>
@@ -15733,7 +15721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>91</v>
       </c>
@@ -15784,7 +15772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>91</v>
       </c>
@@ -15835,7 +15823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>91</v>
       </c>
@@ -15886,7 +15874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>91</v>
       </c>
@@ -15937,7 +15925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>91</v>
       </c>
@@ -15988,7 +15976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>91</v>
       </c>
@@ -16039,7 +16027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>91</v>
       </c>
@@ -16090,7 +16078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>43231</v>
       </c>
@@ -16141,7 +16129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>91</v>
       </c>
@@ -16192,7 +16180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>43231</v>
       </c>
@@ -16243,7 +16231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>91</v>
       </c>
@@ -16294,7 +16282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>91</v>
       </c>
@@ -16345,7 +16333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>91</v>
       </c>
@@ -16396,7 +16384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>91</v>
       </c>
@@ -16447,7 +16435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>91</v>
       </c>
@@ -16498,7 +16486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>91</v>
       </c>
@@ -16549,7 +16537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>91</v>
       </c>
@@ -16600,7 +16588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>91</v>
       </c>
@@ -16651,7 +16639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>91</v>
       </c>
@@ -16704,16 +16692,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q65" xr:uid="{D67D78CB-CFC6-4EA5-9FE8-0EC721A77534}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="16.04.2018"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Piętka"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="7" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
     <filterColumn colId="11" showButton="0"/>
@@ -16721,11 +16699,6 @@
     <filterColumn colId="15" showButton="0"/>
   </autoFilter>
   <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="F1:F2"/>
@@ -16733,6 +16706,11 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16765,10 +16743,10 @@
       <c r="C1" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="42"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
     </row>
@@ -16986,8 +16964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DFBC29-382F-40AB-8DFA-A6A0286E4B26}">
   <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView topLeftCell="I34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36:U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17020,10 +16998,10 @@
       <c r="C1" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="42"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
     </row>
@@ -17529,7 +17507,7 @@
       <c r="U32" s="52"/>
       <c r="V32" s="52"/>
       <c r="W32" s="52"/>
-      <c r="X32" s="51" t="s">
+      <c r="X32" s="60" t="s">
         <v>257</v>
       </c>
     </row>
@@ -17567,7 +17545,7 @@
       <c r="W33" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="X33" s="51"/>
+      <c r="X33" s="60"/>
     </row>
     <row r="34" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L34" s="44"/>
@@ -17818,7 +17796,7 @@
       <c r="W39" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="X39" s="50"/>
+      <c r="X39" s="51"/>
     </row>
     <row r="40" spans="2:24" ht="45" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
@@ -17917,7 +17895,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X41" s="50"/>
+      <c r="X41" s="51"/>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
@@ -17926,7 +17904,7 @@
         <v>8</v>
       </c>
       <c r="F42" s="55"/>
-      <c r="G42" s="50"/>
+      <c r="G42" s="51"/>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
@@ -17947,8 +17925,8 @@
       <c r="E44" s="28">
         <v>12</v>
       </c>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
@@ -17956,8 +17934,8 @@
       <c r="E45" s="28">
         <v>15</v>
       </c>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
@@ -17978,8 +17956,8 @@
       <c r="E47" s="28">
         <v>25</v>
       </c>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
@@ -18000,8 +17978,8 @@
       <c r="E49" s="28">
         <v>29</v>
       </c>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
@@ -18022,8 +18000,8 @@
       <c r="E51" s="28">
         <v>36</v>
       </c>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
@@ -18044,8 +18022,8 @@
       <c r="E53" s="28">
         <v>40</v>
       </c>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
@@ -18053,8 +18031,8 @@
       <c r="E54" s="28">
         <v>43</v>
       </c>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
@@ -18101,28 +18079,19 @@
       <c r="E58" s="28">
         <v>65</v>
       </c>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="X38:X39"/>
+    <mergeCell ref="X40:X41"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="M34:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="X34:X35"/>
+    <mergeCell ref="X36:X37"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="O32:W32"/>
     <mergeCell ref="N38:N39"/>
@@ -18138,14 +18107,23 @@
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="G41:G42"/>
     <mergeCell ref="M32:N33"/>
-    <mergeCell ref="X38:X39"/>
-    <mergeCell ref="X40:X41"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="X34:X35"/>
-    <mergeCell ref="X36:X37"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
